--- a/2022/Symphony/JUNE/25.06.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JUNE/25.06.2022/MC Bank Statement June-2022.xlsx
@@ -3147,6 +3147,27 @@
     <xf numFmtId="1" fontId="33" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="43" fillId="43" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3158,12 +3179,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3196,6 +3211,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3292,27 +3313,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="43" fillId="43" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4024,33 +4024,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="321"/>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
+      <c r="A1" s="328"/>
+      <c r="B1" s="328"/>
+      <c r="C1" s="328"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="322"/>
-      <c r="B2" s="319" t="s">
+      <c r="A2" s="329"/>
+      <c r="B2" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="322"/>
-      <c r="B3" s="320" t="s">
+      <c r="A3" s="329"/>
+      <c r="B3" s="327" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="327"/>
+      <c r="E3" s="327"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="322"/>
+      <c r="A4" s="329"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4068,7 +4068,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="322"/>
+      <c r="A5" s="329"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="322"/>
+      <c r="A6" s="329"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4098,7 +4098,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="322"/>
+      <c r="A7" s="329"/>
       <c r="B7" s="26" t="s">
         <v>53</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="322"/>
+      <c r="A8" s="329"/>
       <c r="B8" s="26" t="s">
         <v>54</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="322"/>
+      <c r="A9" s="329"/>
       <c r="B9" s="26" t="s">
         <v>56</v>
       </c>
@@ -4155,7 +4155,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="322"/>
+      <c r="A10" s="329"/>
       <c r="B10" s="26" t="s">
         <v>57</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="322"/>
+      <c r="A11" s="329"/>
       <c r="B11" s="26" t="s">
         <v>58</v>
       </c>
@@ -4193,7 +4193,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="322"/>
+      <c r="A12" s="329"/>
       <c r="B12" s="26" t="s">
         <v>59</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="322"/>
+      <c r="A13" s="329"/>
       <c r="B13" s="26" t="s">
         <v>60</v>
       </c>
@@ -4231,7 +4231,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="322"/>
+      <c r="A14" s="329"/>
       <c r="B14" s="26" t="s">
         <v>61</v>
       </c>
@@ -4250,7 +4250,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="322"/>
+      <c r="A15" s="329"/>
       <c r="B15" s="26" t="s">
         <v>62</v>
       </c>
@@ -4269,7 +4269,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="322"/>
+      <c r="A16" s="329"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4282,7 +4282,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="322"/>
+      <c r="A17" s="329"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4295,7 +4295,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="322"/>
+      <c r="A18" s="329"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4308,7 +4308,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="322"/>
+      <c r="A19" s="329"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4321,7 +4321,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="322"/>
+      <c r="A20" s="329"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4334,7 +4334,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="322"/>
+      <c r="A21" s="329"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4347,7 +4347,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="322"/>
+      <c r="A22" s="329"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4360,7 +4360,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="322"/>
+      <c r="A23" s="329"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4373,7 +4373,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="322"/>
+      <c r="A24" s="329"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4386,7 +4386,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="322"/>
+      <c r="A25" s="329"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4399,7 +4399,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="322"/>
+      <c r="A26" s="329"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4412,7 +4412,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="322"/>
+      <c r="A27" s="329"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4425,7 +4425,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="322"/>
+      <c r="A28" s="329"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4438,7 +4438,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="322"/>
+      <c r="A29" s="329"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4451,7 +4451,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="322"/>
+      <c r="A30" s="329"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4464,7 +4464,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="322"/>
+      <c r="A31" s="329"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4477,7 +4477,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="322"/>
+      <c r="A32" s="329"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4490,7 +4490,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="322"/>
+      <c r="A33" s="329"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4503,7 +4503,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="322"/>
+      <c r="A34" s="329"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4516,7 +4516,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="322"/>
+      <c r="A35" s="329"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4529,7 +4529,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="322"/>
+      <c r="A36" s="329"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4542,7 +4542,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="322"/>
+      <c r="A37" s="329"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4555,7 +4555,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="322"/>
+      <c r="A38" s="329"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4568,7 +4568,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="322"/>
+      <c r="A39" s="329"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4581,7 +4581,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="322"/>
+      <c r="A40" s="329"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4594,7 +4594,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="322"/>
+      <c r="A41" s="329"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4607,7 +4607,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="322"/>
+      <c r="A42" s="329"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4620,7 +4620,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="322"/>
+      <c r="A43" s="329"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4633,7 +4633,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="322"/>
+      <c r="A44" s="329"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4646,7 +4646,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="322"/>
+      <c r="A45" s="329"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4659,7 +4659,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="322"/>
+      <c r="A46" s="329"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4672,7 +4672,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="322"/>
+      <c r="A47" s="329"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4685,7 +4685,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="322"/>
+      <c r="A48" s="329"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4698,7 +4698,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="322"/>
+      <c r="A49" s="329"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4711,7 +4711,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="322"/>
+      <c r="A50" s="329"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4724,7 +4724,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="322"/>
+      <c r="A51" s="329"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4737,7 +4737,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="322"/>
+      <c r="A52" s="329"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4750,7 +4750,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="322"/>
+      <c r="A53" s="329"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4763,7 +4763,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="322"/>
+      <c r="A54" s="329"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4776,7 +4776,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="322"/>
+      <c r="A55" s="329"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4788,7 +4788,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="322"/>
+      <c r="A56" s="329"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4800,7 +4800,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="322"/>
+      <c r="A57" s="329"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4812,7 +4812,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="322"/>
+      <c r="A58" s="329"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4824,7 +4824,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="322"/>
+      <c r="A59" s="329"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4836,7 +4836,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="322"/>
+      <c r="A60" s="329"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4848,7 +4848,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="322"/>
+      <c r="A61" s="329"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4860,7 +4860,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="322"/>
+      <c r="A62" s="329"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4872,7 +4872,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="322"/>
+      <c r="A63" s="329"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4884,7 +4884,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="322"/>
+      <c r="A64" s="329"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4896,7 +4896,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="322"/>
+      <c r="A65" s="329"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4908,7 +4908,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="322"/>
+      <c r="A66" s="329"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4920,7 +4920,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="322"/>
+      <c r="A67" s="329"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4932,7 +4932,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="322"/>
+      <c r="A68" s="329"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4944,7 +4944,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="322"/>
+      <c r="A69" s="329"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4956,7 +4956,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="322"/>
+      <c r="A70" s="329"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4968,7 +4968,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="322"/>
+      <c r="A71" s="329"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4980,7 +4980,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="322"/>
+      <c r="A72" s="329"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4992,7 +4992,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="322"/>
+      <c r="A73" s="329"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5004,7 +5004,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="322"/>
+      <c r="A74" s="329"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5016,7 +5016,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="322"/>
+      <c r="A75" s="329"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5028,7 +5028,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="322"/>
+      <c r="A76" s="329"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5040,7 +5040,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="322"/>
+      <c r="A77" s="329"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5052,7 +5052,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="322"/>
+      <c r="A78" s="329"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5064,7 +5064,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="322"/>
+      <c r="A79" s="329"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5076,7 +5076,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="322"/>
+      <c r="A80" s="329"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5088,7 +5088,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="322"/>
+      <c r="A81" s="329"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5100,7 +5100,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="322"/>
+      <c r="A82" s="329"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5112,7 +5112,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="322"/>
+      <c r="A83" s="329"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5169,33 +5169,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="321"/>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
+      <c r="A1" s="328"/>
+      <c r="B1" s="328"/>
+      <c r="C1" s="328"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="322"/>
-      <c r="B2" s="319" t="s">
+      <c r="A2" s="329"/>
+      <c r="B2" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="322"/>
-      <c r="B3" s="320" t="s">
+      <c r="A3" s="329"/>
+      <c r="B3" s="327" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="327"/>
+      <c r="E3" s="327"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="322"/>
+      <c r="A4" s="329"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5213,7 +5213,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="322"/>
+      <c r="A5" s="329"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5231,7 +5231,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="322"/>
+      <c r="A6" s="329"/>
       <c r="B6" s="26"/>
       <c r="C6" s="259"/>
       <c r="D6" s="259"/>
@@ -5243,7 +5243,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="322"/>
+      <c r="A7" s="329"/>
       <c r="B7" s="26" t="s">
         <v>207</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="322"/>
+      <c r="A8" s="329"/>
       <c r="B8" s="26" t="s">
         <v>210</v>
       </c>
@@ -5279,7 +5279,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="322"/>
+      <c r="A9" s="329"/>
       <c r="B9" s="26" t="s">
         <v>212</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="322"/>
+      <c r="A10" s="329"/>
       <c r="B10" s="26" t="s">
         <v>213</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="322"/>
+      <c r="A11" s="329"/>
       <c r="B11" s="26" t="s">
         <v>216</v>
       </c>
@@ -5333,7 +5333,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="322"/>
+      <c r="A12" s="329"/>
       <c r="B12" s="26" t="s">
         <v>217</v>
       </c>
@@ -5351,7 +5351,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="322"/>
+      <c r="A13" s="329"/>
       <c r="B13" s="26" t="s">
         <v>218</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="322"/>
+      <c r="A14" s="329"/>
       <c r="B14" s="26" t="s">
         <v>221</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="322"/>
+      <c r="A15" s="329"/>
       <c r="B15" s="26" t="s">
         <v>222</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="322"/>
+      <c r="A16" s="329"/>
       <c r="B16" s="26" t="s">
         <v>227</v>
       </c>
@@ -5423,7 +5423,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="322"/>
+      <c r="A17" s="329"/>
       <c r="B17" s="26" t="s">
         <v>228</v>
       </c>
@@ -5441,7 +5441,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="322"/>
+      <c r="A18" s="329"/>
       <c r="B18" s="26" t="s">
         <v>231</v>
       </c>
@@ -5459,7 +5459,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="322"/>
+      <c r="A19" s="329"/>
       <c r="B19" s="26" t="s">
         <v>235</v>
       </c>
@@ -5477,7 +5477,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="322"/>
+      <c r="A20" s="329"/>
       <c r="B20" s="26" t="s">
         <v>243</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="322"/>
+      <c r="A21" s="329"/>
       <c r="B21" s="26" t="s">
         <v>245</v>
       </c>
@@ -5513,7 +5513,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="322"/>
+      <c r="A22" s="329"/>
       <c r="B22" s="26" t="s">
         <v>246</v>
       </c>
@@ -5531,7 +5531,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="322"/>
+      <c r="A23" s="329"/>
       <c r="B23" s="26" t="s">
         <v>247</v>
       </c>
@@ -5549,7 +5549,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="322"/>
+      <c r="A24" s="329"/>
       <c r="B24" s="26" t="s">
         <v>251</v>
       </c>
@@ -5567,7 +5567,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="322"/>
+      <c r="A25" s="329"/>
       <c r="B25" s="26" t="s">
         <v>250</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="322"/>
+      <c r="A26" s="329"/>
       <c r="B26" s="26" t="s">
         <v>258</v>
       </c>
@@ -5603,7 +5603,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="322"/>
+      <c r="A27" s="329"/>
       <c r="B27" s="26" t="s">
         <v>260</v>
       </c>
@@ -5621,7 +5621,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="322"/>
+      <c r="A28" s="329"/>
       <c r="B28" s="26"/>
       <c r="C28" s="259"/>
       <c r="D28" s="259"/>
@@ -5633,7 +5633,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="322"/>
+      <c r="A29" s="329"/>
       <c r="B29" s="26"/>
       <c r="C29" s="259"/>
       <c r="D29" s="259"/>
@@ -5645,7 +5645,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="322"/>
+      <c r="A30" s="329"/>
       <c r="B30" s="26"/>
       <c r="C30" s="259"/>
       <c r="D30" s="259"/>
@@ -5657,7 +5657,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="322"/>
+      <c r="A31" s="329"/>
       <c r="B31" s="26"/>
       <c r="C31" s="259"/>
       <c r="D31" s="259"/>
@@ -5669,7 +5669,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="322"/>
+      <c r="A32" s="329"/>
       <c r="B32" s="26"/>
       <c r="C32" s="259"/>
       <c r="D32" s="259"/>
@@ -5681,7 +5681,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="322"/>
+      <c r="A33" s="329"/>
       <c r="B33" s="26"/>
       <c r="C33" s="259"/>
       <c r="D33" s="261"/>
@@ -5693,7 +5693,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="322"/>
+      <c r="A34" s="329"/>
       <c r="B34" s="26"/>
       <c r="C34" s="259"/>
       <c r="D34" s="259"/>
@@ -5705,7 +5705,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="322"/>
+      <c r="A35" s="329"/>
       <c r="B35" s="26"/>
       <c r="C35" s="259"/>
       <c r="D35" s="259"/>
@@ -5717,7 +5717,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="322"/>
+      <c r="A36" s="329"/>
       <c r="B36" s="26"/>
       <c r="C36" s="259"/>
       <c r="D36" s="259"/>
@@ -5729,7 +5729,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="322"/>
+      <c r="A37" s="329"/>
       <c r="B37" s="26"/>
       <c r="C37" s="259"/>
       <c r="D37" s="259"/>
@@ -5741,7 +5741,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="322"/>
+      <c r="A38" s="329"/>
       <c r="B38" s="26"/>
       <c r="C38" s="259"/>
       <c r="D38" s="259"/>
@@ -5753,7 +5753,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="322"/>
+      <c r="A39" s="329"/>
       <c r="B39" s="26"/>
       <c r="C39" s="259"/>
       <c r="D39" s="259"/>
@@ -5765,7 +5765,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="322"/>
+      <c r="A40" s="329"/>
       <c r="B40" s="26"/>
       <c r="C40" s="259"/>
       <c r="D40" s="259"/>
@@ -5777,7 +5777,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="322"/>
+      <c r="A41" s="329"/>
       <c r="B41" s="26"/>
       <c r="C41" s="259"/>
       <c r="D41" s="259"/>
@@ -5789,7 +5789,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="322"/>
+      <c r="A42" s="329"/>
       <c r="B42" s="26"/>
       <c r="C42" s="259"/>
       <c r="D42" s="259"/>
@@ -5801,7 +5801,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="322"/>
+      <c r="A43" s="329"/>
       <c r="B43" s="26"/>
       <c r="C43" s="259"/>
       <c r="D43" s="259"/>
@@ -5813,7 +5813,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="322"/>
+      <c r="A44" s="329"/>
       <c r="B44" s="26"/>
       <c r="C44" s="259"/>
       <c r="D44" s="259"/>
@@ -5825,7 +5825,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="322"/>
+      <c r="A45" s="329"/>
       <c r="B45" s="26"/>
       <c r="C45" s="259"/>
       <c r="D45" s="259"/>
@@ -5837,7 +5837,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="322"/>
+      <c r="A46" s="329"/>
       <c r="B46" s="26"/>
       <c r="C46" s="259"/>
       <c r="D46" s="259"/>
@@ -5849,7 +5849,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="322"/>
+      <c r="A47" s="329"/>
       <c r="B47" s="26"/>
       <c r="C47" s="259"/>
       <c r="D47" s="259"/>
@@ -5861,7 +5861,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="322"/>
+      <c r="A48" s="329"/>
       <c r="B48" s="26"/>
       <c r="C48" s="259"/>
       <c r="D48" s="259"/>
@@ -5873,7 +5873,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="322"/>
+      <c r="A49" s="329"/>
       <c r="B49" s="26"/>
       <c r="C49" s="259"/>
       <c r="D49" s="259"/>
@@ -5885,7 +5885,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="322"/>
+      <c r="A50" s="329"/>
       <c r="B50" s="26"/>
       <c r="C50" s="259"/>
       <c r="D50" s="259"/>
@@ -5897,7 +5897,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="322"/>
+      <c r="A51" s="329"/>
       <c r="B51" s="26"/>
       <c r="C51" s="259"/>
       <c r="D51" s="259"/>
@@ -5909,7 +5909,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="322"/>
+      <c r="A52" s="329"/>
       <c r="B52" s="26"/>
       <c r="C52" s="259"/>
       <c r="D52" s="259"/>
@@ -5921,7 +5921,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="322"/>
+      <c r="A53" s="329"/>
       <c r="B53" s="26"/>
       <c r="C53" s="259"/>
       <c r="D53" s="259"/>
@@ -5933,7 +5933,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="322"/>
+      <c r="A54" s="329"/>
       <c r="B54" s="26"/>
       <c r="C54" s="259"/>
       <c r="D54" s="259"/>
@@ -5945,7 +5945,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="322"/>
+      <c r="A55" s="329"/>
       <c r="B55" s="26"/>
       <c r="C55" s="259"/>
       <c r="D55" s="259"/>
@@ -5957,7 +5957,7 @@
       <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="322"/>
+      <c r="A56" s="329"/>
       <c r="B56" s="26"/>
       <c r="C56" s="259"/>
       <c r="D56" s="259"/>
@@ -5969,7 +5969,7 @@
       <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="322"/>
+      <c r="A57" s="329"/>
       <c r="B57" s="26"/>
       <c r="C57" s="259"/>
       <c r="D57" s="259"/>
@@ -5981,7 +5981,7 @@
       <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="322"/>
+      <c r="A58" s="329"/>
       <c r="B58" s="26"/>
       <c r="C58" s="259"/>
       <c r="D58" s="259"/>
@@ -5993,7 +5993,7 @@
       <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="322"/>
+      <c r="A59" s="329"/>
       <c r="B59" s="26"/>
       <c r="C59" s="259"/>
       <c r="D59" s="259"/>
@@ -6004,7 +6004,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="322"/>
+      <c r="A60" s="329"/>
       <c r="B60" s="26"/>
       <c r="C60" s="259"/>
       <c r="D60" s="259"/>
@@ -6015,7 +6015,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="322"/>
+      <c r="A61" s="329"/>
       <c r="B61" s="26"/>
       <c r="C61" s="259"/>
       <c r="D61" s="259"/>
@@ -6026,7 +6026,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="322"/>
+      <c r="A62" s="329"/>
       <c r="B62" s="26"/>
       <c r="C62" s="259"/>
       <c r="D62" s="259"/>
@@ -6037,7 +6037,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="322"/>
+      <c r="A63" s="329"/>
       <c r="B63" s="26"/>
       <c r="C63" s="259"/>
       <c r="D63" s="259"/>
@@ -6048,7 +6048,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="322"/>
+      <c r="A64" s="329"/>
       <c r="B64" s="26"/>
       <c r="C64" s="259"/>
       <c r="D64" s="259"/>
@@ -6059,7 +6059,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="322"/>
+      <c r="A65" s="329"/>
       <c r="B65" s="26"/>
       <c r="C65" s="259"/>
       <c r="D65" s="259"/>
@@ -6070,7 +6070,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="322"/>
+      <c r="A66" s="329"/>
       <c r="B66" s="26"/>
       <c r="C66" s="259"/>
       <c r="D66" s="259"/>
@@ -6081,7 +6081,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="322"/>
+      <c r="A67" s="329"/>
       <c r="B67" s="26"/>
       <c r="C67" s="259"/>
       <c r="D67" s="259"/>
@@ -6092,7 +6092,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="322"/>
+      <c r="A68" s="329"/>
       <c r="B68" s="26"/>
       <c r="C68" s="259"/>
       <c r="D68" s="259"/>
@@ -6103,7 +6103,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="322"/>
+      <c r="A69" s="329"/>
       <c r="B69" s="26"/>
       <c r="C69" s="259"/>
       <c r="D69" s="259"/>
@@ -6114,7 +6114,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="322"/>
+      <c r="A70" s="329"/>
       <c r="B70" s="26"/>
       <c r="C70" s="259"/>
       <c r="D70" s="259"/>
@@ -6125,7 +6125,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="322"/>
+      <c r="A71" s="329"/>
       <c r="B71" s="26"/>
       <c r="C71" s="259"/>
       <c r="D71" s="259"/>
@@ -6136,7 +6136,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="322"/>
+      <c r="A72" s="329"/>
       <c r="B72" s="26"/>
       <c r="C72" s="259"/>
       <c r="D72" s="259"/>
@@ -6147,7 +6147,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="322"/>
+      <c r="A73" s="329"/>
       <c r="B73" s="26"/>
       <c r="C73" s="259"/>
       <c r="D73" s="259"/>
@@ -6158,7 +6158,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="322"/>
+      <c r="A74" s="329"/>
       <c r="B74" s="26"/>
       <c r="C74" s="259"/>
       <c r="D74" s="259"/>
@@ -6169,7 +6169,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="322"/>
+      <c r="A75" s="329"/>
       <c r="B75" s="26"/>
       <c r="C75" s="259"/>
       <c r="D75" s="259"/>
@@ -6180,7 +6180,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="322"/>
+      <c r="A76" s="329"/>
       <c r="B76" s="26"/>
       <c r="C76" s="259"/>
       <c r="D76" s="259"/>
@@ -6191,7 +6191,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="322"/>
+      <c r="A77" s="329"/>
       <c r="B77" s="26"/>
       <c r="C77" s="259"/>
       <c r="D77" s="259"/>
@@ -6202,7 +6202,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="322"/>
+      <c r="A78" s="329"/>
       <c r="B78" s="26"/>
       <c r="C78" s="259"/>
       <c r="D78" s="259"/>
@@ -6213,7 +6213,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="322"/>
+      <c r="A79" s="329"/>
       <c r="B79" s="26"/>
       <c r="C79" s="259"/>
       <c r="D79" s="259"/>
@@ -6225,7 +6225,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="322"/>
+      <c r="A80" s="329"/>
       <c r="B80" s="26"/>
       <c r="C80" s="259"/>
       <c r="D80" s="259"/>
@@ -6237,7 +6237,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="322"/>
+      <c r="A81" s="329"/>
       <c r="B81" s="26"/>
       <c r="C81" s="259"/>
       <c r="D81" s="259"/>
@@ -6249,7 +6249,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="322"/>
+      <c r="A82" s="329"/>
       <c r="B82" s="26"/>
       <c r="C82" s="259"/>
       <c r="D82" s="259"/>
@@ -6261,7 +6261,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="322"/>
+      <c r="A83" s="329"/>
       <c r="B83" s="288"/>
       <c r="C83" s="260">
         <f>SUM(C5:C72)</f>
@@ -6341,67 +6341,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
-      <c r="N1" s="327"/>
-      <c r="O1" s="327"/>
-      <c r="P1" s="327"/>
-      <c r="Q1" s="327"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
+      <c r="N1" s="332"/>
+      <c r="O1" s="332"/>
+      <c r="P1" s="332"/>
+      <c r="Q1" s="332"/>
     </row>
     <row r="2" spans="1:24" s="70" customFormat="1" ht="18">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="333" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="328"/>
-      <c r="N2" s="328"/>
-      <c r="O2" s="328"/>
-      <c r="P2" s="328"/>
-      <c r="Q2" s="328"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="333"/>
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="333"/>
+      <c r="N2" s="333"/>
+      <c r="O2" s="333"/>
+      <c r="P2" s="333"/>
+      <c r="Q2" s="333"/>
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="329" t="s">
+      <c r="A3" s="334" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="330"/>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
-      <c r="H3" s="330"/>
-      <c r="I3" s="330"/>
-      <c r="J3" s="330"/>
-      <c r="K3" s="330"/>
-      <c r="L3" s="330"/>
-      <c r="M3" s="330"/>
-      <c r="N3" s="330"/>
-      <c r="O3" s="330"/>
-      <c r="P3" s="330"/>
-      <c r="Q3" s="331"/>
+      <c r="B3" s="335"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335"/>
+      <c r="O3" s="335"/>
+      <c r="P3" s="335"/>
+      <c r="Q3" s="336"/>
       <c r="S3" s="54"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6410,52 +6410,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="332" t="s">
+      <c r="A4" s="337" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="334" t="s">
+      <c r="B4" s="339" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="323" t="s">
+      <c r="C4" s="341" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="323" t="s">
+      <c r="D4" s="341" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="323" t="s">
+      <c r="E4" s="341" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="323" t="s">
+      <c r="F4" s="341" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="323" t="s">
+      <c r="G4" s="341" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="323" t="s">
+      <c r="H4" s="341" t="s">
         <v>257</v>
       </c>
-      <c r="I4" s="323" t="s">
+      <c r="I4" s="341" t="s">
         <v>174</v>
       </c>
-      <c r="J4" s="323" t="s">
+      <c r="J4" s="341" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="323" t="s">
+      <c r="K4" s="341" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="323" t="s">
+      <c r="L4" s="341" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="323" t="s">
+      <c r="M4" s="341" t="s">
         <v>167</v>
       </c>
-      <c r="N4" s="323" t="s">
+      <c r="N4" s="341" t="s">
         <v>191</v>
       </c>
-      <c r="O4" s="325" t="s">
+      <c r="O4" s="330" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="336" t="s">
+      <c r="P4" s="343" t="s">
         <v>64</v>
       </c>
       <c r="Q4" s="132" t="s">
@@ -6468,22 +6468,22 @@
       <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:24" s="72" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="333"/>
-      <c r="B5" s="335"/>
-      <c r="C5" s="324"/>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="324"/>
-      <c r="I5" s="324"/>
-      <c r="J5" s="324"/>
-      <c r="K5" s="324"/>
-      <c r="L5" s="324"/>
-      <c r="M5" s="324"/>
-      <c r="N5" s="324"/>
-      <c r="O5" s="326"/>
-      <c r="P5" s="337"/>
+      <c r="A5" s="338"/>
+      <c r="B5" s="340"/>
+      <c r="C5" s="342"/>
+      <c r="D5" s="342"/>
+      <c r="E5" s="342"/>
+      <c r="F5" s="342"/>
+      <c r="G5" s="342"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="J5" s="342"/>
+      <c r="K5" s="342"/>
+      <c r="L5" s="342"/>
+      <c r="M5" s="342"/>
+      <c r="N5" s="342"/>
+      <c r="O5" s="331"/>
+      <c r="P5" s="344"/>
       <c r="Q5" s="133" t="s">
         <v>42</v>
       </c>
@@ -9614,6 +9614,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9630,9 +9633,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9646,8 +9646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9674,14 +9674,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="349" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="344"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="351"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
       <c r="I1" s="149"/>
@@ -9775,14 +9775,14 @@
       <c r="CS1" s="144"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="345" t="s">
+      <c r="A2" s="352" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="347"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="353"/>
+      <c r="F2" s="354"/>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
       <c r="I2" s="149"/>
@@ -9876,14 +9876,14 @@
       <c r="CS2" s="144"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="348" t="s">
+      <c r="A3" s="355" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="349"/>
-      <c r="C3" s="349"/>
-      <c r="D3" s="349"/>
-      <c r="E3" s="349"/>
-      <c r="F3" s="350"/>
+      <c r="B3" s="356"/>
+      <c r="C3" s="356"/>
+      <c r="D3" s="356"/>
+      <c r="E3" s="356"/>
+      <c r="F3" s="357"/>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
       <c r="I3" s="149"/>
@@ -13330,12 +13330,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="139"/>
-      <c r="B35" s="340" t="s">
+      <c r="B35" s="347" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="340"/>
-      <c r="D35" s="340"/>
-      <c r="E35" s="340"/>
+      <c r="C35" s="347"/>
+      <c r="D35" s="347"/>
+      <c r="E35" s="347"/>
       <c r="F35" s="140"/>
       <c r="G35" s="145"/>
       <c r="H35" s="145"/>
@@ -14188,10 +14188,10 @@
       <c r="D43" s="214"/>
       <c r="E43" s="182"/>
       <c r="F43" s="140"/>
-      <c r="G43" s="341"/>
-      <c r="H43" s="341"/>
-      <c r="I43" s="341"/>
-      <c r="J43" s="341"/>
+      <c r="G43" s="348"/>
+      <c r="H43" s="348"/>
+      <c r="I43" s="348"/>
+      <c r="J43" s="348"/>
       <c r="K43" s="65"/>
       <c r="L43" s="149"/>
       <c r="M43" s="65"/>
@@ -21888,19 +21888,19 @@
       <c r="CS109" s="144"/>
     </row>
     <row r="110" spans="1:97">
-      <c r="A110" s="368" t="s">
+      <c r="A110" s="319" t="s">
         <v>96</v>
       </c>
-      <c r="B110" s="369" t="s">
+      <c r="B110" s="320" t="s">
         <v>76</v>
       </c>
-      <c r="C110" s="370" t="s">
+      <c r="C110" s="321" t="s">
         <v>67</v>
       </c>
-      <c r="D110" s="371">
+      <c r="D110" s="322">
         <v>10915</v>
       </c>
-      <c r="E110" s="372" t="s">
+      <c r="E110" s="323" t="s">
         <v>52</v>
       </c>
       <c r="F110" s="144"/>
@@ -22000,19 +22000,19 @@
       <c r="CS110" s="144"/>
     </row>
     <row r="111" spans="1:97">
-      <c r="A111" s="368" t="s">
+      <c r="A111" s="319" t="s">
         <v>95</v>
       </c>
-      <c r="B111" s="369" t="s">
+      <c r="B111" s="320" t="s">
         <v>81</v>
       </c>
-      <c r="C111" s="370" t="s">
+      <c r="C111" s="321" t="s">
         <v>71</v>
       </c>
-      <c r="D111" s="371">
+      <c r="D111" s="322">
         <v>19370</v>
       </c>
-      <c r="E111" s="372" t="s">
+      <c r="E111" s="323" t="s">
         <v>119</v>
       </c>
       <c r="F111" s="144"/>
@@ -22112,19 +22112,19 @@
       <c r="CS111" s="144"/>
     </row>
     <row r="112" spans="1:97">
-      <c r="A112" s="368" t="s">
+      <c r="A112" s="319" t="s">
         <v>95</v>
       </c>
-      <c r="B112" s="373" t="s">
+      <c r="B112" s="324" t="s">
         <v>82</v>
       </c>
-      <c r="C112" s="374">
+      <c r="C112" s="325">
         <v>1711270696</v>
       </c>
-      <c r="D112" s="371">
+      <c r="D112" s="322">
         <v>22000</v>
       </c>
-      <c r="E112" s="372" t="s">
+      <c r="E112" s="323" t="s">
         <v>51</v>
       </c>
       <c r="F112" s="144"/>
@@ -22224,19 +22224,19 @@
       <c r="CS112" s="144"/>
     </row>
     <row r="113" spans="1:97">
-      <c r="A113" s="368" t="s">
+      <c r="A113" s="319" t="s">
         <v>91</v>
       </c>
-      <c r="B113" s="369" t="s">
+      <c r="B113" s="320" t="s">
         <v>84</v>
       </c>
-      <c r="C113" s="370" t="s">
+      <c r="C113" s="321" t="s">
         <v>73</v>
       </c>
-      <c r="D113" s="371">
+      <c r="D113" s="322">
         <v>13500</v>
       </c>
-      <c r="E113" s="372" t="s">
+      <c r="E113" s="323" t="s">
         <v>108</v>
       </c>
       <c r="F113" s="144"/>
@@ -22336,19 +22336,19 @@
       <c r="CS113" s="144"/>
     </row>
     <row r="114" spans="1:97">
-      <c r="A114" s="368" t="s">
+      <c r="A114" s="319" t="s">
         <v>93</v>
       </c>
-      <c r="B114" s="369" t="s">
+      <c r="B114" s="320" t="s">
         <v>86</v>
       </c>
-      <c r="C114" s="370" t="s">
+      <c r="C114" s="321" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="371">
+      <c r="D114" s="322">
         <v>79590</v>
       </c>
-      <c r="E114" s="372" t="s">
+      <c r="E114" s="323" t="s">
         <v>140</v>
       </c>
       <c r="F114" s="144"/>
@@ -22886,11 +22886,11 @@
       <c r="CS118" s="144"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="338" t="s">
+      <c r="A119" s="345" t="s">
         <v>30</v>
       </c>
-      <c r="B119" s="339"/>
-      <c r="C119" s="351"/>
+      <c r="B119" s="346"/>
+      <c r="C119" s="358"/>
       <c r="D119" s="219">
         <f>SUM(D37:D118)</f>
         <v>2627465</v>
@@ -23093,11 +23093,11 @@
       <c r="CS120" s="144"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="338" t="s">
+      <c r="A121" s="345" t="s">
         <v>31</v>
       </c>
-      <c r="B121" s="339"/>
-      <c r="C121" s="339"/>
+      <c r="B121" s="346"/>
+      <c r="C121" s="346"/>
       <c r="D121" s="219">
         <f>D119+M121</f>
         <v>2627465</v>
@@ -34354,35 +34354,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="355" t="s">
+      <c r="A1" s="362" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="356"/>
-      <c r="C1" s="356"/>
-      <c r="D1" s="356"/>
-      <c r="E1" s="357"/>
+      <c r="B1" s="363"/>
+      <c r="C1" s="363"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="364"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="361" t="s">
+      <c r="A2" s="368" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="362"/>
-      <c r="C2" s="362"/>
-      <c r="D2" s="362"/>
-      <c r="E2" s="363"/>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="370"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="358" t="s">
+      <c r="A3" s="365" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="359"/>
-      <c r="C3" s="359"/>
-      <c r="D3" s="359"/>
-      <c r="E3" s="360"/>
+      <c r="B3" s="366"/>
+      <c r="C3" s="366"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="367"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34405,15 +34405,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="364" t="s">
+      <c r="A4" s="371" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="365"/>
+      <c r="B4" s="372"/>
       <c r="C4" s="270"/>
-      <c r="D4" s="366" t="s">
+      <c r="D4" s="373" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="367"/>
+      <c r="E4" s="374"/>
       <c r="F4" s="5"/>
       <c r="G4" s="46"/>
       <c r="H4" s="7"/>
@@ -34888,13 +34888,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="352" t="s">
+      <c r="A19" s="359" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="353"/>
-      <c r="C19" s="353"/>
-      <c r="D19" s="353"/>
-      <c r="E19" s="354"/>
+      <c r="B19" s="360"/>
+      <c r="C19" s="360"/>
+      <c r="D19" s="360"/>
+      <c r="E19" s="361"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
